--- a/doc/assessment.xlsx
+++ b/doc/assessment.xlsx
@@ -16,15 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>环境搭建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,89 +30,1565 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate modelling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Effort(hrs)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前后台需求分析，服务器，域名资料整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送验证链接到邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击验证链接进行验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面注册（邮箱，密码，邮箱验证，随机验证码）记录用户ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录（更新登录时间，ip），存（用户名，未付款订单数量等信息到session）过期时间0.5H 登录页面弹出框形式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大图广告位图片展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maven/mysql/spring jdbc(hibernate)/struts(tiles)/mail，页面初始化，分页展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主模块：展示产品图片，名称，价格，分页展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新品上市模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精品推荐模块</t>
-  </si>
-  <si>
-    <t>热销产品模块</t>
-  </si>
-  <si>
-    <t>产品展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左边添加产品分类导航 分类列表导航 按照分类筛选产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品详情</t>
+    <t>1. 需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) 服务器，域名资料整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2) 前后台需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2) mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3) 分页展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4) 页面初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) 分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） hibernate 建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 页面注册（邮箱，密码，邮箱验证，随机验证码）记录用户ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） 发送验证链接到邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3） 点击验证链接进行验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 大图广告位图片展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 大图广告位图片展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 主模块：展示产品图片，名称，价格，分页展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） 新品上市模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3） 精品推荐模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4） 热销产品模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 左边添加产品分类导航 分类列表导航 按照分类筛选产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） 产品搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 产品展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新登录时间，ip，存用户名，未付款订单数量等信息到session，session过期时间0.5H， 登录页面弹出框形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) maven/mysql/spring jdbc(hibernate)/struts(tiles)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 产品详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) 个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有通过邮件验证的用户不能购买产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过邮件重置密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在更改个人密码或者购买产品的时候需要再次输入密码验证用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2）地址管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3）订单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  4）评论管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    b. 密码重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    c. 登录用户长时间内（比如1年内）不用再次登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    a. 邮件验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    a. 订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    b. 订单回退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以对购买过的产品进行评价，并且管理该评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  5）资金管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对回退的订单采取线下退款的方式，在线上只反映回退的订单金额以及状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  6）我的收藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来收藏用户喜欢的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. 个人中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1) 产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车要展示产品列表中的产品图片，商品名称，货号（可选？），单价，数量，应付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2）确认收货地址 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3）确认付款方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      a. 在线支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      b. 货到付款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首单货到付款需要手机验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4）提交订单后生成订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    5）发邮件提醒下单成功；发邮件提醒管理员有新订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    6）跟踪订单状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    7）取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付前的订单用户可以取消，货到付款的订单发货后不能取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    8）订单回退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户列表，可以根据用户名，邮箱进行查询</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以禁用用户（根据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，用户名）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记录用户登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ip</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）通过邮箱找回账号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理员修改自己密码</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单列表，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据订单不同状态筛选订单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单操作，发货，取消订单，添加备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）有新订单时，有提示信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>买家付款后买家不能主动取消订单，如需取消订单需联系卖家</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      b. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于货到付款，发货后不能取消订单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上下架</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品标签管理（如：豆类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瓜果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根茎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时蔬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反季节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机蔬菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿色蔬菜等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新建产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>评价管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增删查改菜谱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）关联产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择标签（支持多个）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐复选框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品图片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品有一张图片作为封面和多张图片作为展示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对多，指定一个图片作为封面</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片上传，压缩为指定大小的图片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）产品推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺序设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品推荐设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据产品筛选评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 用户管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">14.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜谱模块（参见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.quannonghui.com/recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +1596,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +1628,47 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +1678,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,11 +1706,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -561,185 +2089,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="78.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="105.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.25" customWidth="1"/>
+    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+    </row>
+    <row r="26" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>26</v>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A91" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A92" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A93" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A96" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A101" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B7:B9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/doc/assessment.xlsx
+++ b/doc/assessment.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Priority</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,66 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单列表，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据订单不同状态筛选订单</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    2</t>
     </r>
     <r>
@@ -259,37 +319,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>可以禁用用户（根据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，用户名）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+      <t>订单操作，发货，取消订单，添加备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    3</t>
     </r>
     <r>
@@ -300,6 +335,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>）有新订单时，有提示信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>）</t>
     </r>
     <r>
@@ -313,11 +370,78 @@
     </r>
     <r>
       <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      a. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上下架</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品标签管理（如：豆类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -328,44 +452,745 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>记录用户登录</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ip</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）通过邮箱找回账号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    5</t>
+      <t>瓜果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根茎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时蔬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>反季节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有机蔬菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿色蔬菜等）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>创建标签</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择标签（支持多个）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>推荐复选框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品图片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品有一张图片作为封面和多张图片作为展示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对多，指定一个图片作为封面</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                 a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图片上传，压缩为指定大小的图片</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺序设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品推荐设置</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>b.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>a.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根据产品筛选评价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 用户管理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">13. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订单模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">14.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1） 导航条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2） 详情展示（图片，名称，价格，购买数量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  3） 产品评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示产品的分类信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1) 个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    d. 信息展示，更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像，姓名，邮箱（不能更新），电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    b. 地址列表（可以勾选默认地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    a. 新建地址（编辑地址）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    a. 订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态显示，取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    b. 订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可以对购买过的订单的每个产品进行评价，并且管理该评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    c. 评论管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车要展示产品列表中的产品图片，商品名称，货号（可选？），单价，数量，应付金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    1) 产品列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    3）在线支付实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    2）下订单页面 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 购物车/订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    4）发邮件提醒下单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送邮件给客户提示下订单成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据ip，用户名，邮箱查询，禁用用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">    3</t>
     </r>
     <r>
       <rPr>
@@ -400,13 +1225,33 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    1</t>
+      <t xml:space="preserve">    2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）展示用户信息</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 买家付款后买家不能主动取消订单，如需取消订单需联系卖家，对于货到付款，发货后不能取消订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">  3</t>
     </r>
     <r>
       <rPr>
@@ -435,7 +1280,27 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单列表，</t>
+      <t>新建产品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照标签搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -454,13 +1319,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>根据订单不同状态筛选订单</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    2</t>
+      <t>产品分类</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）产品推荐</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  6</t>
     </r>
     <r>
       <rPr>
@@ -489,55 +1370,72 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>订单操作，发货，取消订单，添加备注</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）有新订单时，有提示信息</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>买家付款后买家不能主动取消订单，如需取消订单需联系卖家</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      b. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对于货到付款，发货后不能取消订单</t>
+      <t>评价管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>菜谱模块（参见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>http://www.quannonghui.com/recipe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">15 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>广告位大图设置</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -563,7 +1461,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="7"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -578,34 +1476,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>产品列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      a. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上下架</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
+      <t>增删查改菜谱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">  2</t>
     </r>
     <r>
@@ -616,967 +1492,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品标签管理（如：豆类</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>瓜果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根茎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时蔬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>反季节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有机蔬菜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绿色蔬菜等）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新建产品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>评价管理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>增删查改菜谱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>）关联产品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除产品</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>创建标签</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标签列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择标签（支持多个）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>推荐复选框</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>c.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品图片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品有一张图片作为封面和多张图片作为展示</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一对多，指定一个图片作为封面</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                 a) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图片上传，压缩为指定大小的图片</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）产品推荐</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>顺序设置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品推荐设置</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>b.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>删除评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>a.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>根据产品筛选评价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 用户管理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">13. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订单模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">14.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>菜谱模块（参见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://www.quannonghui.com/recipe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1） 导航条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2） 详情展示（图片，名称，价格，购买数量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  3） 产品评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示产品的分类信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  1) 个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    d. 信息展示，更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像，姓名，邮箱（不能更新），电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    b. 地址列表（可以勾选默认地址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    a. 新建地址（编辑地址）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    a. 订单列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态显示，取消订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    b. 订单详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户可以对购买过的订单的每个产品进行评价，并且管理该评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    c. 评论管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购物车要展示产品列表中的产品图片，商品名称，货号（可选？），单价，数量，应付金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    1) 产品列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    3）在线支付实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    2）下订单页面 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11. 购物车/订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    4）发邮件提醒下单成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送邮件给客户提示下订单成功</t>
+    <t>集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1584,7 +1509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1655,6 +1580,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1694,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1708,6 +1645,7 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2077,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2131,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2306,10 +2244,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5">
         <v>2</v>
@@ -2317,7 +2255,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5">
         <v>26</v>
@@ -2325,7 +2263,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5">
         <v>4</v>
@@ -2341,7 +2279,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2368,10 +2306,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -2384,7 +2322,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -2392,7 +2330,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C43">
         <v>8</v>
@@ -2406,10 +2344,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>10</v>
@@ -2417,7 +2355,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46">
@@ -2426,10 +2364,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -2454,15 +2392,15 @@
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -2470,7 +2408,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -2478,7 +2416,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -2486,10 +2424,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -2502,175 +2440,233 @@
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="9" t="s">
+      <c r="C66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="9" t="s">
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="9" t="s">
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A68" s="9" t="s">
+      <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A69" s="9" t="s">
+    <row r="73" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
+    <row r="76" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A72" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
+    <row r="79" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A80" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A81" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A82" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A83" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A84" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A85" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A86" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A78" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A88" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A85" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A86" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A87" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A88" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A89" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A90" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A91" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A92" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A97" s="9" t="s">
-        <v>60</v>
+    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A95" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="7">
+        <f>SUM(C3:C97)</f>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
